--- a/autoConditions/train1LoopCondition.xlsx
+++ b/autoConditions/train1LoopCondition.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,67 +440,117 @@
           <t>condFiles</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>testFiles</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>autoConditions/train1Block1Condition.xlsx</t>
+          <t>autoConditions/train1Block1.xlsx</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>autoConditions/train1Block1Test.xlsx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>autoConditions/train1Block2Condition.xlsx</t>
+          <t>autoConditions/train1Block2.xlsx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>autoConditions/train1Block2Test.xlsx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>autoConditions/train1Block3Condition.xlsx</t>
+          <t>autoConditions/train1Block3.xlsx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>autoConditions/train1Block3Test.xlsx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>autoConditions/train1Block4Condition.xlsx</t>
+          <t>autoConditions/train1Block4.xlsx</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>autoConditions/train1Block4Test.xlsx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>autoConditions/train1Block5Condition.xlsx</t>
+          <t>autoConditions/train1Block5.xlsx</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>autoConditions/train1Block5Test.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>autoConditions/train1Block6Condition.xlsx</t>
+          <t>autoConditions/train1Block6.xlsx</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>autoConditions/train1Block6Test.xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>autoConditions/train1Block7Condition.xlsx</t>
+          <t>autoConditions/train1Block7.xlsx</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>autoConditions/train1Block7Test.xlsx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>autoConditions/train1Block8Condition.xlsx</t>
+          <t>autoConditions/train1Block8.xlsx</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>autoConditions/train1Block8Test.xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>autoConditions/train1Block9Condition.xlsx</t>
+          <t>autoConditions/train1Block9.xlsx</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>autoConditions/train1Block9Test.xlsx</t>
         </is>
       </c>
     </row>
